--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake Williams\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake Williams\PhysicsCompetition\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D33)</f>
-        <v>28.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -513,6 +513,9 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>42949</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D33)</f>
-        <v>35.5</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -552,10 +552,16 @@
       <c r="B15" s="2">
         <v>42958</v>
       </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>42961</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D33)</f>
-        <v>48.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -561,85 +561,88 @@
         <v>42961</v>
       </c>
       <c r="D16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>42962</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>42963</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>42964</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>42965</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>42968</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>42969</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>42970</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>42971</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>42972</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>42975</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>42976</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>42977</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>42979</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>42982</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>42983</v>
       </c>

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D33)</f>
-        <v>57.5</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -575,6 +575,9 @@
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>42963</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -439,7 +439,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D33)</f>
-        <v>65.5</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -583,6 +583,9 @@
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>42964</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,11 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D33)</f>
-        <v>73.5</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -591,6 +591,9 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>42965</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D33)</f>
-        <v>78.5</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -604,6 +604,9 @@
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>42969</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D33)</f>
-        <v>86.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -612,6 +612,9 @@
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>42970</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D33)</f>
-        <v>94.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -620,6 +620,9 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>42971</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -438,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -475,7 +475,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D33)</f>
-        <v>98.5</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -628,6 +628,9 @@
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>42972</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D33)</f>
-        <v>106.5</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -652,6 +652,9 @@
       <c r="B29" s="2">
         <v>42978</v>
       </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
@@ -666,6 +669,9 @@
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>42983</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -75,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,26 +98,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -436,50 +422,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F33"/>
+  <dimension ref="B1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>42942</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="F3">
-        <f>SUM(D3:D33)</f>
-        <v>116.5</v>
+        <f>SUM(D3:D77)</f>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>42943</v>
       </c>
       <c r="D4">
@@ -487,7 +473,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>42944</v>
       </c>
       <c r="D5">
@@ -495,7 +481,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>42947</v>
       </c>
       <c r="D6">
@@ -503,7 +489,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>42948</v>
       </c>
       <c r="D7">
@@ -511,7 +497,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>42949</v>
       </c>
       <c r="D8">
@@ -519,37 +505,37 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>42950</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>42951</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>42954</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>42955</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>42956</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>42957</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>42958</v>
       </c>
       <c r="D15">
@@ -557,7 +543,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>42961</v>
       </c>
       <c r="D16">
@@ -565,7 +551,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>42962</v>
       </c>
       <c r="D17">
@@ -573,7 +559,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>42963</v>
       </c>
       <c r="D18">
@@ -581,7 +567,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>42964</v>
       </c>
       <c r="D19">
@@ -589,7 +575,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>42965</v>
       </c>
       <c r="D20">
@@ -597,12 +583,12 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>42968</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>42969</v>
       </c>
       <c r="D22">
@@ -610,7 +596,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>42970</v>
       </c>
       <c r="D23">
@@ -618,7 +604,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>42971</v>
       </c>
       <c r="D24">
@@ -626,7 +612,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>42972</v>
       </c>
       <c r="D25">
@@ -634,22 +620,28 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>42975</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>42976</v>
       </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>42977</v>
       </c>
+      <c r="D28">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>42978</v>
       </c>
       <c r="D29">
@@ -657,25 +649,248 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>42979</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>42982</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>42983</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>42984</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>42985</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>42986</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>42990</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>42991</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>42993</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>42997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>42998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>42999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>43003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>43004</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>43005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>43017</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>43031</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>43032</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>43041</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>43047</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="B1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D77)</f>
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -692,6 +692,9 @@
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>42990</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D77)</f>
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -705,6 +705,9 @@
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>42992</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D77)</f>
-        <v>136</v>
+        <v>139.75</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -723,6 +723,9 @@
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>42997</v>
+      </c>
+      <c r="D42">
+        <v>3.75</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D77)</f>
-        <v>139.75</v>
+        <v>144.75</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -736,6 +736,9 @@
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>42999</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F3">
         <f>SUM(D3:D77)</f>
-        <v>144.75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>42997</v>
       </c>
       <c r="D42">
-        <v>3.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -841,67 +841,73 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>43028</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>43031</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>43032</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>43033</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>43034</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>43035</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>43040</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>43041</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>43042</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>43045</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>43046</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>43047</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
     </row>
   </sheetData>

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -166,8 +166,8 @@
   </sheetPr>
   <dimension ref="B1:F77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -205,7 +205,7 @@
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">SUM(D3:D112)</f>
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,19 +620,22 @@
       <c r="B70" s="4" t="n">
         <v>43035</v>
       </c>
+      <c r="D70" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="4" t="n">
         <v>43040</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="4" t="n">
         <v>43041</v>
       </c>
+      <c r="D72" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="4" t="n">
@@ -647,6 +650,9 @@
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="4" t="n">
         <v>43046</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -166,8 +166,8 @@
   </sheetPr>
   <dimension ref="B1:F77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -204,8 +204,8 @@
         <v>6</v>
       </c>
       <c r="F3" s="0" t="n">
-        <f aca="false">SUM(D3:D112)</f>
-        <v>168</v>
+        <f aca="false">SUM(D3:D150)</f>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,6 +662,9 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="4"/>
+      <c r="D77" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -164,10 +164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F77"/>
+  <dimension ref="B1:F80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E78" activeCellId="0" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -205,7 +205,7 @@
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">SUM(D3:D150)</f>
-        <v>173</v>
+        <v>177.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,6 +664,11 @@
       <c r="B77" s="4"/>
       <c r="D77" s="0" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="0" t="n">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -164,10 +164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F80"/>
+  <dimension ref="B1:F82"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E78" activeCellId="0" sqref="E78"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -205,7 +205,7 @@
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">SUM(D3:D150)</f>
-        <v>177.5</v>
+        <v>182.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,6 +669,11 @@
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="0" t="n">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -164,10 +164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F82"/>
+  <dimension ref="B1:F86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G82" activeCellId="0" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -205,7 +205,7 @@
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">SUM(D3:D150)</f>
-        <v>182.5</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,6 +673,11 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D82" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="0" t="n">
         <v>5</v>
       </c>
     </row>

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -164,9 +164,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F86"/>
+  <dimension ref="B1:F89"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G82" activeCellId="0" sqref="G82"/>
     </sheetView>
   </sheetViews>
@@ -205,7 +205,7 @@
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">SUM(D3:D150)</f>
-        <v>187.5</v>
+        <v>197.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,8 +676,18 @@
         <v>5</v>
       </c>
     </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="0" t="n">
         <v>5</v>
       </c>
     </row>

--- a/Docs/TimeLog.xlsx
+++ b/Docs/TimeLog.xlsx
@@ -164,10 +164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F89"/>
+  <dimension ref="B1:F92"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G82" activeCellId="0" sqref="G82"/>
+      <selection pane="topLeft" activeCell="F88" activeCellId="0" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -205,7 +205,7 @@
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">SUM(D3:D150)</f>
-        <v>197.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,7 +688,12 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D89" s="0" t="n">
-        <v>5</v>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
